--- a/output/NAVI_12430199000177.xlsx
+++ b/output/NAVI_12430199000177.xlsx
@@ -1747,10 +1747,10 @@
         <v>44165</v>
       </c>
       <c r="B124">
-        <v>2.0367906</v>
+        <v>2.0259558</v>
       </c>
       <c r="C124">
-        <v>0.008572159230549437</v>
+        <v>0.004973729483424005</v>
       </c>
     </row>
   </sheetData>

--- a/output/NAVI_12430199000177.xlsx
+++ b/output/NAVI_12430199000177.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NAVI LONG SHORT FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1371 +383,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40451</v>
       </c>
       <c r="B2">
-        <v>0.0005896000000000789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40482</v>
       </c>
       <c r="B3">
-        <v>0.01540499999999989</v>
-      </c>
-      <c r="C3">
         <v>0.01480666998737523</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40512</v>
       </c>
       <c r="B4">
-        <v>0.02793350000000006</v>
-      </c>
-      <c r="C4">
         <v>0.01233842653916439</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40543</v>
       </c>
       <c r="B5">
-        <v>0.03979449999999995</v>
-      </c>
-      <c r="C5">
         <v>0.01153868416585313</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40574</v>
       </c>
       <c r="B6">
-        <v>0.04554649999999993</v>
-      </c>
-      <c r="C6">
         <v>0.005531862305484303</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40602</v>
       </c>
       <c r="B7">
-        <v>0.06046250000000009</v>
-      </c>
-      <c r="C7">
         <v>0.0142662234534765</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40633</v>
       </c>
       <c r="B8">
-        <v>0.06369610000000003</v>
-      </c>
-      <c r="C8">
         <v>0.003049235592960553</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40663</v>
       </c>
       <c r="B9">
-        <v>0.06560809999999995</v>
-      </c>
-      <c r="C9">
         <v>0.001797505885374528</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40694</v>
       </c>
       <c r="B10">
-        <v>0.05791940000000007</v>
-      </c>
-      <c r="C10">
         <v>-0.007215316775463609</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40724</v>
       </c>
       <c r="B11">
-        <v>0.07111369999999995</v>
-      </c>
-      <c r="C11">
         <v>0.01247193311702177</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40755</v>
       </c>
       <c r="B12">
-        <v>0.08485209999999999</v>
-      </c>
-      <c r="C12">
         <v>0.01282627605267317</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40786</v>
       </c>
       <c r="B13">
-        <v>0.09008980000000011</v>
-      </c>
-      <c r="C13">
         <v>0.004828031397090982</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40816</v>
       </c>
       <c r="B14">
-        <v>0.1120270000000001</v>
-      </c>
-      <c r="C14">
         <v>0.02012421361983208</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40847</v>
       </c>
       <c r="B15">
-        <v>0.1278383000000001</v>
-      </c>
-      <c r="C15">
         <v>0.01421844973188602</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40877</v>
       </c>
       <c r="B16">
-        <v>0.1330990999999999</v>
-      </c>
-      <c r="C16">
         <v>0.004664498448048615</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40908</v>
       </c>
       <c r="B17">
-        <v>0.135826</v>
-      </c>
-      <c r="C17">
         <v>0.002406585619916246</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40939</v>
       </c>
       <c r="B18">
-        <v>0.1674990999999999</v>
-      </c>
-      <c r="C18">
         <v>0.02788552119778909</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40968</v>
       </c>
       <c r="B19">
-        <v>0.1905732</v>
-      </c>
-      <c r="C19">
         <v>0.01976369831891089</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40999</v>
       </c>
       <c r="B20">
-        <v>0.2116941999999999</v>
-      </c>
-      <c r="C20">
         <v>0.01774019438703967</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41029</v>
       </c>
       <c r="B21">
-        <v>0.2270768000000001</v>
-      </c>
-      <c r="C21">
         <v>0.01269511729939787</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41060</v>
       </c>
       <c r="B22">
-        <v>0.2467531000000001</v>
-      </c>
-      <c r="C22">
         <v>0.01603510065547642</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41090</v>
       </c>
       <c r="B23">
-        <v>0.250046</v>
-      </c>
-      <c r="C23">
         <v>0.00264118051922213</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41121</v>
       </c>
       <c r="B24">
-        <v>0.2534316000000001</v>
-      </c>
-      <c r="C24">
         <v>0.002708380331603921</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41152</v>
       </c>
       <c r="B25">
-        <v>0.2726199</v>
-      </c>
-      <c r="C25">
         <v>0.01530861356934032</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41182</v>
       </c>
       <c r="B26">
-        <v>0.2759176000000001</v>
-      </c>
-      <c r="C26">
         <v>0.002591268610525388</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41213</v>
       </c>
       <c r="B27">
-        <v>0.2810862999999999</v>
-      </c>
-      <c r="C27">
         <v>0.004050966927644728</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41243</v>
       </c>
       <c r="B28">
-        <v>0.2838109</v>
-      </c>
-      <c r="C28">
         <v>0.002126788804157842</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41274</v>
       </c>
       <c r="B29">
-        <v>0.3050550999999999</v>
-      </c>
-      <c r="C29">
         <v>0.016547764160594</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41305</v>
       </c>
       <c r="B30">
-        <v>0.3394699999999999</v>
-      </c>
-      <c r="C30">
         <v>0.02637045746191102</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41333</v>
       </c>
       <c r="B31">
-        <v>0.3539810999999999</v>
-      </c>
-      <c r="C31">
         <v>0.01083346398202267</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41364</v>
       </c>
       <c r="B32">
-        <v>0.3633451999999999</v>
-      </c>
-      <c r="C32">
         <v>0.00691597541501876</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41394</v>
       </c>
       <c r="B33">
-        <v>0.3786989999999999</v>
-      </c>
-      <c r="C33">
         <v>0.01126185796524615</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41425</v>
       </c>
       <c r="B34">
-        <v>0.3934118</v>
-      </c>
-      <c r="C34">
         <v>0.01067150987996657</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41455</v>
       </c>
       <c r="B35">
-        <v>0.3963574000000001</v>
-      </c>
-      <c r="C35">
         <v>0.002113947936998928</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41486</v>
       </c>
       <c r="B36">
-        <v>0.3940125000000001</v>
-      </c>
-      <c r="C36">
         <v>-0.001679297864572438</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41517</v>
       </c>
       <c r="B37">
-        <v>0.4087392000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01056425247262838</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41547</v>
       </c>
       <c r="B38">
-        <v>0.4073237999999999</v>
-      </c>
-      <c r="C38">
         <v>-0.001004728199513583</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41578</v>
       </c>
       <c r="B39">
-        <v>0.4087148</v>
-      </c>
-      <c r="C39">
         <v>0.0009884008214742224</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41608</v>
       </c>
       <c r="B40">
-        <v>0.4184376999999999</v>
-      </c>
-      <c r="C40">
         <v>0.006901964826379281</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41639</v>
       </c>
       <c r="B41">
-        <v>0.4236902</v>
-      </c>
-      <c r="C41">
         <v>0.003703017763839744</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41670</v>
       </c>
       <c r="B42">
-        <v>0.4336392</v>
-      </c>
-      <c r="C42">
         <v>0.006988177624598357</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41698</v>
       </c>
       <c r="B43">
-        <v>0.4327901000000001</v>
-      </c>
-      <c r="C43">
         <v>-0.0005922689613955257</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41729</v>
       </c>
       <c r="B44">
-        <v>0.4238432999999999</v>
-      </c>
-      <c r="C44">
         <v>-0.006244320085684651</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41759</v>
       </c>
       <c r="B45">
-        <v>0.4393286000000001</v>
-      </c>
-      <c r="C45">
         <v>0.01087570521278591</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41790</v>
       </c>
       <c r="B46">
-        <v>0.4533693000000001</v>
-      </c>
-      <c r="C46">
         <v>0.00975503439589831</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41820</v>
       </c>
       <c r="B47">
-        <v>0.4481926000000001</v>
-      </c>
-      <c r="C47">
         <v>-0.003561861393384325</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41851</v>
       </c>
       <c r="B48">
-        <v>0.4766528000000001</v>
-      </c>
-      <c r="C48">
         <v>0.01965222029169333</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41882</v>
       </c>
       <c r="B49">
-        <v>0.5038438000000001</v>
-      </c>
-      <c r="C49">
         <v>0.01841394266817487</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41912</v>
       </c>
       <c r="B50">
-        <v>0.5064622000000001</v>
-      </c>
-      <c r="C50">
         <v>0.001741138275132004</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41943</v>
       </c>
       <c r="B51">
-        <v>0.5249280000000001</v>
-      </c>
-      <c r="C51">
         <v>0.01225772541786974</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41973</v>
       </c>
       <c r="B52">
-        <v>0.5355459</v>
-      </c>
-      <c r="C52">
         <v>0.006962886116590461</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42004</v>
       </c>
       <c r="B53">
-        <v>0.5599632999999999</v>
-      </c>
-      <c r="C53">
         <v>0.01590144586365017</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42035</v>
       </c>
       <c r="B54">
-        <v>0.5488842</v>
-      </c>
-      <c r="C54">
         <v>-0.007102154262218829</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42063</v>
       </c>
       <c r="B55">
-        <v>0.5817502000000001</v>
-      </c>
-      <c r="C55">
         <v>0.02121914601491848</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42094</v>
       </c>
       <c r="B56">
-        <v>0.6139490000000001</v>
-      </c>
-      <c r="C56">
         <v>0.02035643807726406</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42124</v>
       </c>
       <c r="B57">
-        <v>0.6017574000000001</v>
-      </c>
-      <c r="C57">
         <v>-0.007553894206074663</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42155</v>
       </c>
       <c r="B58">
-        <v>0.6368366000000001</v>
-      </c>
-      <c r="C58">
         <v>0.02190044509861488</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42185</v>
       </c>
       <c r="B59">
-        <v>0.6569657</v>
-      </c>
-      <c r="C59">
         <v>0.01229756226125445</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42216</v>
       </c>
       <c r="B60">
-        <v>0.7356240999999999</v>
-      </c>
-      <c r="C60">
         <v>0.04747135079501041</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42247</v>
       </c>
       <c r="B61">
-        <v>0.7782032999999999</v>
-      </c>
-      <c r="C61">
         <v>0.02453250101793358</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42277</v>
       </c>
       <c r="B62">
-        <v>0.8056776999999999</v>
-      </c>
-      <c r="C62">
         <v>0.01545065178992755</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42308</v>
       </c>
       <c r="B63">
-        <v>0.8106313000000001</v>
-      </c>
-      <c r="C63">
         <v>0.002743346722396955</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42338</v>
       </c>
       <c r="B64">
-        <v>0.8216266999999999</v>
-      </c>
-      <c r="C64">
         <v>0.006072688570003093</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42369</v>
       </c>
       <c r="B65">
-        <v>0.8579786</v>
-      </c>
-      <c r="C65">
         <v>0.01995573516791338</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42400</v>
       </c>
       <c r="B66">
-        <v>0.8568579999999999</v>
-      </c>
-      <c r="C66">
         <v>-0.0006031285828589361</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42429</v>
       </c>
       <c r="B67">
-        <v>0.8545423000000001</v>
-      </c>
-      <c r="C67">
         <v>-0.001247106671592446</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42460</v>
       </c>
       <c r="B68">
-        <v>0.8709289</v>
-      </c>
-      <c r="C68">
         <v>0.008835926794444005</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42490</v>
       </c>
       <c r="B69">
-        <v>0.8894979999999999</v>
-      </c>
-      <c r="C69">
         <v>0.009925069840975631</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42521</v>
       </c>
       <c r="B70">
-        <v>0.9136340000000001</v>
-      </c>
-      <c r="C70">
         <v>0.01277376319001133</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42551</v>
       </c>
       <c r="B71">
-        <v>0.9835974000000001</v>
-      </c>
-      <c r="C71">
         <v>0.03656049171367148</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42582</v>
       </c>
       <c r="B72">
-        <v>1.0692951</v>
-      </c>
-      <c r="C72">
         <v>0.0432031721759667</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42613</v>
       </c>
       <c r="B73">
-        <v>1.1131387</v>
-      </c>
-      <c r="C73">
         <v>0.02118769816832788</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42643</v>
       </c>
       <c r="B74">
-        <v>1.1116296</v>
-      </c>
-      <c r="C74">
         <v>-0.0007141509452265327</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42674</v>
       </c>
       <c r="B75">
-        <v>1.1656786</v>
-      </c>
-      <c r="C75">
         <v>0.02559587154868459</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42704</v>
       </c>
       <c r="B76">
-        <v>1.1361817</v>
-      </c>
-      <c r="C76">
         <v>-0.01362016506050356</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42735</v>
       </c>
       <c r="B77">
-        <v>1.1579528</v>
-      </c>
-      <c r="C77">
         <v>0.0101915955932026</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42766</v>
       </c>
       <c r="B78">
-        <v>1.2177891</v>
-      </c>
-      <c r="C78">
         <v>0.02772827097979169</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42794</v>
       </c>
       <c r="B79">
-        <v>1.2630873</v>
-      </c>
-      <c r="C79">
         <v>0.02042493580656513</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42825</v>
       </c>
       <c r="B80">
-        <v>1.2760577</v>
-      </c>
-      <c r="C80">
         <v>0.00573128575287396</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42855</v>
       </c>
       <c r="B81">
-        <v>1.2600653</v>
-      </c>
-      <c r="C81">
         <v>-0.007026359656875147</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42886</v>
       </c>
       <c r="B82">
-        <v>1.249197</v>
-      </c>
-      <c r="C82">
         <v>-0.004808843355101233</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42916</v>
       </c>
       <c r="B83">
-        <v>1.279649</v>
-      </c>
-      <c r="C83">
         <v>0.01353905416021806</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42947</v>
       </c>
       <c r="B84">
-        <v>1.3081506</v>
-      </c>
-      <c r="C84">
         <v>0.01250262650083411</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42978</v>
       </c>
       <c r="B85">
-        <v>1.337731</v>
-      </c>
-      <c r="C85">
         <v>0.01281562823500337</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43008</v>
       </c>
       <c r="B86">
-        <v>1.3896665</v>
-      </c>
-      <c r="C86">
         <v>0.02221620023860749</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43039</v>
       </c>
       <c r="B87">
-        <v>1.4042836</v>
-      </c>
-      <c r="C87">
         <v>0.006116794958626937</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43069</v>
       </c>
       <c r="B88">
-        <v>1.3996623</v>
-      </c>
-      <c r="C88">
         <v>-0.001922111018849759</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43100</v>
       </c>
       <c r="B89">
-        <v>1.4268215</v>
-      </c>
-      <c r="C89">
         <v>0.01131792585981772</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43131</v>
       </c>
       <c r="B90">
-        <v>1.4836714</v>
-      </c>
-      <c r="C90">
         <v>0.02342566192033479</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43159</v>
       </c>
       <c r="B91">
-        <v>1.5167039</v>
-      </c>
-      <c r="C91">
         <v>0.01329986728518118</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43190</v>
       </c>
       <c r="B92">
-        <v>1.5645265</v>
-      </c>
-      <c r="C92">
         <v>0.01900207648583518</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43220</v>
       </c>
       <c r="B93">
-        <v>1.5959481</v>
-      </c>
-      <c r="C93">
         <v>0.01225239824973556</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43251</v>
       </c>
       <c r="B94">
-        <v>1.6035618</v>
-      </c>
-      <c r="C94">
         <v>0.002932916879193392</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43281</v>
       </c>
       <c r="B95">
-        <v>1.63721</v>
-      </c>
-      <c r="C95">
         <v>0.01292391062121134</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43312</v>
       </c>
       <c r="B96">
-        <v>1.6792621</v>
-      </c>
-      <c r="C96">
         <v>0.01594567743941511</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43343</v>
       </c>
       <c r="B97">
-        <v>1.639094</v>
-      </c>
-      <c r="C97">
         <v>-0.01499222491147834</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43373</v>
       </c>
       <c r="B98">
-        <v>1.6453509</v>
-      </c>
-      <c r="C98">
         <v>0.002370851511920291</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43404</v>
       </c>
       <c r="B99">
-        <v>1.7126172</v>
-      </c>
-      <c r="C99">
         <v>0.02542811995187488</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43434</v>
       </c>
       <c r="B100">
-        <v>1.7584</v>
-      </c>
-      <c r="C100">
         <v>0.01687772237085272</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43465</v>
       </c>
       <c r="B101">
-        <v>1.7876823</v>
-      </c>
-      <c r="C101">
         <v>0.01061568300464044</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43496</v>
       </c>
       <c r="B102">
-        <v>1.8496965</v>
-      </c>
-      <c r="C102">
         <v>0.02224579178194008</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43524</v>
       </c>
       <c r="B103">
-        <v>1.8590054</v>
-      </c>
-      <c r="C103">
         <v>0.003266628569042362</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43555</v>
       </c>
       <c r="B104">
-        <v>1.8735665</v>
-      </c>
-      <c r="C104">
         <v>0.005093064881934062</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43585</v>
       </c>
       <c r="B105">
-        <v>1.8712717</v>
-      </c>
-      <c r="C105">
         <v>-0.0007985894880108146</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43616</v>
       </c>
       <c r="B106">
-        <v>1.8970456</v>
-      </c>
-      <c r="C106">
         <v>0.008976475476005996</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43646</v>
       </c>
       <c r="B107">
-        <v>1.9257442</v>
-      </c>
-      <c r="C107">
         <v>0.00990616095238539</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43677</v>
       </c>
       <c r="B108">
-        <v>1.9433806</v>
-      </c>
-      <c r="C108">
         <v>0.006028004772255846</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43708</v>
       </c>
       <c r="B109">
-        <v>1.9808063</v>
-      </c>
-      <c r="C109">
         <v>0.01271520917138602</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43738</v>
       </c>
       <c r="B110">
-        <v>1.9821591</v>
-      </c>
-      <c r="C110">
         <v>0.0004538369366704487</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43769</v>
       </c>
       <c r="B111">
-        <v>2.0143195</v>
-      </c>
-      <c r="C111">
         <v>0.01078426700976487</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43799</v>
       </c>
       <c r="B112">
-        <v>1.9869068</v>
-      </c>
-      <c r="C112">
         <v>-0.009094158731348889</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43830</v>
       </c>
       <c r="B113">
-        <v>2.0509954</v>
-      </c>
-      <c r="C113">
         <v>0.02145651146530603</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43861</v>
       </c>
       <c r="B114">
-        <v>2.0223998</v>
-      </c>
-      <c r="C114">
         <v>-0.009372547726555047</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43890</v>
       </c>
       <c r="B115">
-        <v>2.0196542</v>
-      </c>
-      <c r="C115">
         <v>-0.0009084172120444878</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43921</v>
       </c>
       <c r="B116">
-        <v>2.0165402</v>
-      </c>
-      <c r="C116">
         <v>-0.001031243908656831</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43951</v>
       </c>
       <c r="B117">
-        <v>2.0628683</v>
-      </c>
-      <c r="C117">
         <v>0.01535802506460882</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43982</v>
       </c>
       <c r="B118">
-        <v>2.0541933</v>
-      </c>
-      <c r="C118">
         <v>-0.002832312443861729</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44012</v>
       </c>
       <c r="B119">
-        <v>2.0907188</v>
-      </c>
-      <c r="C119">
         <v>0.01195913172882657</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>44043</v>
       </c>
       <c r="B120">
-        <v>2.1237845</v>
-      </c>
-      <c r="C120">
         <v>0.01069838511352117</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>44074</v>
       </c>
       <c r="B121">
-        <v>2.0931204</v>
-      </c>
-      <c r="C121">
         <v>-0.009816330159779008</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>44104</v>
       </c>
       <c r="B122">
-        <v>2.040532</v>
-      </c>
-      <c r="C122">
         <v>-0.0170017306794783</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44135</v>
       </c>
       <c r="B123">
-        <v>2.01098</v>
-      </c>
-      <c r="C123">
         <v>-0.009719351745023475</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>44165</v>
       </c>
       <c r="B124">
-        <v>2.0259558</v>
-      </c>
-      <c r="C124">
-        <v>0.004973729483424005</v>
+        <v>0.002139801659260421</v>
       </c>
     </row>
   </sheetData>
